--- a/biology/Botanique/Lycoris_(plante)/Lycoris_(plante).xlsx
+++ b/biology/Botanique/Lycoris_(plante)/Lycoris_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lycoris est un genre de plantes à fleurs de la famille des Liliacées selon la classification classique de Cronquist (1981)[2], des Amaryllidacées selon la classification phylogénétique APG IV (2016)[3]. Les espèces fleurissent en automne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lycoris est un genre de plantes à fleurs de la famille des Liliacées selon la classification classique de Cronquist (1981), des Amaryllidacées selon la classification phylogénétique APG IV (2016). Les espèces fleurissent en automne.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[4] 29 octobre 2012
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List" 29 octobre 2012
 Lycoris albiflora Koidz. , (1924)
 Lycoris anhuiensis Y.Xu &amp; G.J.Fan , (1982)
 Lycoris argentea Worsley , (1928)
@@ -581,9 +595,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[4] 29 octobre 2012
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List" 29 octobre 2012
 Lycoris africana (Lam.) M.Roem. = Lycoris aurea (L'Hér.) Herb. , (1819)
 Lycoris aurea var. angustitepala P.S.Hsu &amp; al. = Lycoris aurea (L'Hér.) Herb. , (1819)
 Lycoris aurea var. surgens Worsley ex Traub. &amp; Moldenke 	= Lycoris aurea (L'Hér.) Herb. , (1819)
@@ -632,9 +648,11 @@
           <t>Espèces au statut non encore résolu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[4] 29 octobre 2012
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List" 29 octobre 2012
 Lycoris changonensis
 Lycoris cinnabarinum
 Lycoris cv
